--- a/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\hjo20125\Git\ampersand-models\MDT\RollenEnBeheerdersPassen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="16275" windowHeight="12075"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="16272" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="RDWDiensten" sheetId="1" r:id="rId1"/>
@@ -392,9 +397,6 @@
     <t>nodigVoor~</t>
   </si>
   <si>
-    <t>[ProcID;]</t>
-  </si>
-  <si>
     <t>omschrijving</t>
   </si>
   <si>
@@ -441,6 +443,9 @@
   </si>
   <si>
     <t>RdwDienst_11</t>
+  </si>
+  <si>
+    <t>[ProcIdent;]</t>
   </si>
 </sst>
 </file>
@@ -532,6 +537,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -579,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,7 +622,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,126 +834,126 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -965,159 +973,159 @@
       <selection activeCell="B3" sqref="B3:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="16272" windowHeight="12072"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="16272" windowHeight="12072" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RDWDiensten" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mailtje" sheetId="2" r:id="rId2"/>
+    <sheet name="nodigVoor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>1. Vrijwaren</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>[ProcIdent;]</t>
+  </si>
+  <si>
+    <t>ProcIdent</t>
+  </si>
+  <si>
+    <t>[nodigVoor]</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -527,6 +533,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -833,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +977,7 @@
   <dimension ref="B3:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B37"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,12 +1144,552 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3050</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>1. Vrijwaren</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>[nodigVoor]</t>
+  </si>
+  <si>
+    <t>nodigVoor</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -515,11 +518,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,6 +552,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1146,11 +1166,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,536 +1180,331 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5">
-        <v>237</v>
+      <c r="A3" s="6">
+        <v>1115</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5">
-        <v>364</v>
+      <c r="A4" s="6">
+        <v>1116</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5">
-        <v>365</v>
+      <c r="A5" s="6">
+        <v>1117</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5">
-        <v>366</v>
+      <c r="A6" s="6">
+        <v>1302</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5">
-        <v>521</v>
+      <c r="A7" s="6">
+        <v>1869</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5">
-        <v>658</v>
+      <c r="A8" s="6">
+        <v>2628</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="5">
-        <v>731</v>
+      <c r="A9" s="6">
+        <v>2629</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5">
-        <v>734</v>
+      <c r="A10" s="6">
+        <v>2630</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1023</v>
+      <c r="A11" s="6">
+        <v>2631</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1033</v>
+      <c r="A12" s="6">
+        <v>2632</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1114</v>
+      <c r="A13" s="6">
+        <v>2693</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1122</v>
+      <c r="A14" s="6">
+        <v>2797</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1426</v>
+      <c r="A15" s="6">
+        <v>2798</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1433</v>
+      <c r="A16" s="6">
+        <v>2800</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1440</v>
+      <c r="A17" s="6">
+        <v>2801</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1447</v>
+      <c r="A18" s="6">
+        <v>2802</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1544</v>
+      <c r="A19" s="6">
+        <v>2803</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1573</v>
+      <c r="A20" s="6">
+        <v>2804</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1574</v>
+      <c r="A21" s="6">
+        <v>2809</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1575</v>
+      <c r="A22" s="6">
+        <v>2876</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1576</v>
+      <c r="A23" s="6">
+        <v>2878</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2056</v>
+      <c r="A24" s="6">
+        <v>2879</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2086</v>
+      <c r="A25" s="6">
+        <v>3059</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2159</v>
+      <c r="A26" s="6">
+        <v>695</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2174</v>
-      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2259</v>
-      </c>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2273</v>
-      </c>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="5">
-        <v>2298</v>
-      </c>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="5">
-        <v>2390</v>
-      </c>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="5">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="5">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="5">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="5">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2882</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2884</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="5">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="5">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="5">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="5">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="5">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="5">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="5">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="5">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="5">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="5">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="5">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="5">
-        <v>2727</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="5">
-        <v>2745</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="5">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="5">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="5">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="5">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="5">
-        <v>3050</v>
-      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
@@ -9,19 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="16272" windowHeight="12072" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="16272" windowHeight="12072"/>
   </bookViews>
   <sheets>
     <sheet name="RDWDiensten" sheetId="1" r:id="rId1"/>
     <sheet name="Mailtje" sheetId="2" r:id="rId2"/>
-    <sheet name="nodigVoor" sheetId="3" r:id="rId3"/>
+    <sheet name="nodigVoorOud" sheetId="3" r:id="rId3"/>
+    <sheet name="nodigVoor" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">nodigVoor!$A$1:$E$112</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="164">
   <si>
     <t>1. Vrijwaren</t>
   </si>
@@ -373,9 +377,6 @@
     <t>Digitaal machtigen</t>
   </si>
   <si>
-    <t>Documentnummer/tenaamstellingscode</t>
-  </si>
-  <si>
     <t>Verplichtingen &amp; voorbehouden</t>
   </si>
   <si>
@@ -394,36 +395,15 @@
     <t>Vervangend Kentekenbewijs</t>
   </si>
   <si>
-    <t>nodigVoor~</t>
-  </si>
-  <si>
     <t>omschrijving</t>
   </si>
   <si>
-    <t>2311;2318</t>
-  </si>
-  <si>
-    <t>2144;1577</t>
-  </si>
-  <si>
     <t>RdwDienst</t>
   </si>
   <si>
     <t>[RdwDienst]</t>
   </si>
   <si>
-    <t>RdwDienst_1</t>
-  </si>
-  <si>
-    <t>RdwDienst_2</t>
-  </si>
-  <si>
-    <t>RdwDienst_3</t>
-  </si>
-  <si>
-    <t>RdwDienst_4</t>
-  </si>
-  <si>
     <t>RdwDienst_5</t>
   </si>
   <si>
@@ -433,28 +413,370 @@
     <t>RdwDienst_7</t>
   </si>
   <si>
-    <t>RdwDienst_8</t>
-  </si>
-  <si>
-    <t>RdwDienst_9</t>
-  </si>
-  <si>
-    <t>RdwDienst_10</t>
-  </si>
-  <si>
-    <t>RdwDienst_11</t>
-  </si>
-  <si>
-    <t>[ProcIdent;]</t>
-  </si>
-  <si>
     <t>ProcIdent</t>
   </si>
   <si>
-    <t>[nodigVoor]</t>
-  </si>
-  <si>
     <t>nodigVoor</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>1475</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1818</t>
+  </si>
+  <si>
+    <t>1820</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>1826</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>Opname in bedrijfsvooraad</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>Demonteren</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>Tenaamstellen</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>Versnelde afgifte</t>
+  </si>
+  <si>
+    <t>2187</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>2284</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2314</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>2317</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>2486</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>2494</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>2520</t>
+  </si>
+  <si>
+    <t>2521</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>2597</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>2629</t>
+  </si>
+  <si>
+    <t>2630</t>
+  </si>
+  <si>
+    <t>2631</t>
+  </si>
+  <si>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>2693</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>2762</t>
+  </si>
+  <si>
+    <t>Exporteren</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>2798</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2801</t>
+  </si>
+  <si>
+    <t>2802</t>
+  </si>
+  <si>
+    <t>2803</t>
+  </si>
+  <si>
+    <t>Documentnummer &amp; Tenaamstellingscode</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>2809</t>
+  </si>
+  <si>
+    <t>2811</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>2843</t>
+  </si>
+  <si>
+    <t>2847</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>2849</t>
+  </si>
+  <si>
+    <t>2853</t>
+  </si>
+  <si>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>2857</t>
+  </si>
+  <si>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>2867</t>
+  </si>
+  <si>
+    <t>2871</t>
+  </si>
+  <si>
+    <t>2872</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>2878</t>
+  </si>
+  <si>
+    <t>2879</t>
+  </si>
+  <si>
+    <t>2892</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>2975</t>
+  </si>
+  <si>
+    <t>2976</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>2982</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3038</t>
+  </si>
+  <si>
+    <t>3059</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>[ProcIdent]</t>
+  </si>
+  <si>
+    <t>[RdwDienst;]</t>
+  </si>
+  <si>
+    <t>Raadplegen;Tenaamstellen</t>
+  </si>
+  <si>
+    <t>nodigVoor]</t>
   </si>
 </sst>
 </file>
@@ -537,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -554,6 +876,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -858,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,120 +1195,158 @@
     <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>43</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3</f>
+        <v>Vrijwaren</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" ref="A4:A13" si="0">B4</f>
+        <v>Tellerstanddiensten</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>45</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Tenaamstellen voertuig</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Digitaal machtigen</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Verplichtingen &amp; voorbehouden</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Raadplegen</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Opvragen factuurspecificatie (toekomst)</v>
+      </c>
+      <c r="B10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Wijzigen gegevens erkenninghouder (toekomst)</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Schorsen</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Vervangend Kentekenbewijs</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1166,9 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1177,18 +1538,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1557,7 @@
         <v>1115</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1204,7 +1565,7 @@
         <v>1116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1212,7 +1573,7 @@
         <v>1117</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1581,7 @@
         <v>1302</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1589,7 @@
         <v>1869</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1236,7 +1597,7 @@
         <v>2628</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1605,7 @@
         <v>2629</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1613,7 @@
         <v>2630</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1621,7 @@
         <v>2631</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1629,7 @@
         <v>2632</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1276,7 +1637,7 @@
         <v>2693</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1645,7 @@
         <v>2797</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1653,7 @@
         <v>2798</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1661,7 @@
         <v>2800</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1669,7 @@
         <v>2801</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,7 +1677,7 @@
         <v>2802</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1685,7 @@
         <v>2803</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,7 +1693,7 @@
         <v>2804</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1340,7 +1701,7 @@
         <v>2809</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1348,7 +1709,7 @@
         <v>2876</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1356,7 +1717,7 @@
         <v>2878</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1725,7 @@
         <v>2879</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1733,7 @@
         <v>3059</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1741,7 @@
         <v>695</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,4 +1870,1307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="D54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="D74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="8"/>
+      <c r="D81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="D108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="D109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E112"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/RdwDienst.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="164">
   <si>
     <t>1. Vrijwaren</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Tellerstanddiensten</t>
   </si>
   <si>
-    <t>Tenaamstellen voertuig</t>
-  </si>
-  <si>
     <t>Digitaal machtigen</t>
   </si>
   <si>
@@ -777,6 +774,9 @@
   </si>
   <si>
     <t>nodigVoor]</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1183,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,23 +1195,23 @@
     <col min="2" max="2" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>B3</f>
         <v>Vrijwaren</v>
@@ -1220,7 +1220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A13" si="0">B4</f>
         <v>Tellerstanddiensten</v>
@@ -1229,124 +1229,136 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Tenaamstellen voertuig</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Digitaal machtigen</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Verplichtingen &amp; voorbehouden</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Raadplegen</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Opvragen factuurspecificatie (toekomst)</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Wijzigen gegevens erkenninghouder (toekomst)</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Schorsen</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Vervangend Kentekenbewijs</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1538,18 +1550,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1557,7 +1569,7 @@
         <v>1115</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1565,7 +1577,7 @@
         <v>1116</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,7 +1585,7 @@
         <v>1117</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1581,7 +1593,7 @@
         <v>1302</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1589,7 +1601,7 @@
         <v>1869</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1597,7 +1609,7 @@
         <v>2628</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1605,7 +1617,7 @@
         <v>2629</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1613,7 +1625,7 @@
         <v>2630</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1621,7 +1633,7 @@
         <v>2631</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1629,7 +1641,7 @@
         <v>2632</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1637,7 +1649,7 @@
         <v>2693</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +1657,7 @@
         <v>2797</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1653,7 +1665,7 @@
         <v>2798</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1661,7 +1673,7 @@
         <v>2800</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1669,7 +1681,7 @@
         <v>2801</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1677,7 +1689,7 @@
         <v>2802</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,7 +1697,7 @@
         <v>2803</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1693,7 +1705,7 @@
         <v>2804</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1713,7 @@
         <v>2809</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1709,7 +1721,7 @@
         <v>2876</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1717,7 +1729,7 @@
         <v>2878</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1725,7 +1737,7 @@
         <v>2879</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,7 +1745,7 @@
         <v>3059</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1741,7 +1753,7 @@
         <v>695</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1889,1283 +1901,1283 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8"/>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8"/>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8"/>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8"/>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8"/>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8"/>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="8"/>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8"/>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8"/>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8"/>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8"/>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8"/>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8"/>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8"/>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8"/>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8"/>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8"/>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="8"/>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="8"/>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="8"/>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8"/>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="8"/>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="8"/>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="8"/>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="8"/>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="8"/>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="8"/>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="8"/>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="8"/>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="8"/>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="8"/>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="8"/>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="8"/>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="8"/>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="8"/>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="8"/>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="8"/>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8"/>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="8"/>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="8"/>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B56" s="8"/>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="8"/>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="D65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>118</v>
-      </c>
       <c r="D71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
         <v>118</v>
       </c>
-      <c r="D72" t="s">
-        <v>119</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="8"/>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="8"/>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="8"/>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="8"/>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="8"/>
       <c r="D90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="8"/>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B98" s="8"/>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B106" s="8"/>
       <c r="D106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107" s="8"/>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B108" s="8"/>
       <c r="D108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" s="8"/>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="8"/>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B111" s="8"/>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
